--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389631.379442186</v>
+        <v>2388876.586459064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843035</v>
+        <v>2896994.290843029</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736541</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,20 +1209,20 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,64 +1288,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="D10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>160.1128255217529</v>
       </c>
       <c r="D11" t="n">
-        <v>146.5318122637591</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E11" t="n">
-        <v>288.196940870453</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407876</v>
+        <v>47.94631158407881</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59762315252742</v>
+        <v>70.59762315252743</v>
       </c>
       <c r="T11" t="n">
-        <v>117.1465288645459</v>
+        <v>117.1465288645458</v>
       </c>
       <c r="U11" t="n">
         <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W11" t="n">
         <v>256.2686590164737</v>
@@ -1464,10 +1464,10 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H12" t="n">
-        <v>96.19049711964605</v>
+        <v>96.19049711964607</v>
       </c>
       <c r="I12" t="n">
-        <v>57.90206971882208</v>
+        <v>57.9020697188221</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.5204726364653</v>
+        <v>41.52047263646536</v>
       </c>
       <c r="S12" t="n">
         <v>145.9864318313356</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.07889317303479</v>
+        <v>79.07889317303477</v>
       </c>
       <c r="C13" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843525</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601364</v>
       </c>
       <c r="E13" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179309</v>
       </c>
       <c r="F13" t="n">
-        <v>48.31492659997942</v>
+        <v>48.3149265999794</v>
       </c>
       <c r="G13" t="n">
-        <v>64.35108710701111</v>
+        <v>64.3510871070111</v>
       </c>
       <c r="H13" t="n">
-        <v>53.0171398021887</v>
+        <v>53.01713980218869</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>180.6539156432736</v>
       </c>
       <c r="X13" t="n">
-        <v>126.2990176390768</v>
+        <v>126.2990176390767</v>
       </c>
       <c r="Y13" t="n">
         <v>117.1738853951444</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>205.1616725457168</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
         <v>221.4059562765829</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407881</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252749</v>
+        <v>70.5976231525275</v>
       </c>
       <c r="T14" t="n">
         <v>117.1465288645459</v>
@@ -1670,10 +1670,10 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492204</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>218.6752396455334</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H15" t="n">
-        <v>96.19049711964605</v>
+        <v>96.19049711964607</v>
       </c>
       <c r="I15" t="n">
-        <v>57.90206971882209</v>
+        <v>57.9020697188221</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.52047263646533</v>
+        <v>41.52047263646536</v>
       </c>
       <c r="S15" t="n">
         <v>145.9864318313356</v>
@@ -1783,7 +1783,7 @@
         <v>53.01713980218875</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468528</v>
+        <v>32.9464771746853</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537679</v>
+        <v>34.65991636537681</v>
       </c>
       <c r="S16" t="n">
         <v>104.7746029199932</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265038</v>
+        <v>224.1916469265039</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841857</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1842679287136</v>
+        <v>203.1842679287137</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9264054986191</v>
+        <v>224.9264054986192</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865964</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4997005366169</v>
+        <v>245.499700536617</v>
       </c>
       <c r="H17" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047491</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693574</v>
+        <v>7.327087780693697</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271198</v>
+        <v>53.87599349271211</v>
       </c>
       <c r="U17" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101876</v>
       </c>
       <c r="V17" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666831</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9981236446399</v>
+        <v>192.99812364464</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773866</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6949796735852</v>
+        <v>223.6949796735854</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80835780120091</v>
+        <v>15.80835780120103</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601509</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2454182866661</v>
+        <v>1.080551735177351</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815928</v>
+        <v>194.668934099647</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133762</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3938685259479</v>
+        <v>118.393868525948</v>
       </c>
       <c r="V19" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082662</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3833802714398</v>
+        <v>117.3833802714399</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724288</v>
+        <v>63.02848226724299</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331068</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1916469265038</v>
+        <v>224.1916469265043</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841857</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1842679287136</v>
+        <v>203.1842679287137</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9264054986191</v>
+        <v>224.9264054986192</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865964</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4997005366169</v>
+        <v>245.499700536617</v>
       </c>
       <c r="H20" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047491</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693574</v>
+        <v>7.327087780693697</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271198</v>
+        <v>53.87599349271211</v>
       </c>
       <c r="U20" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101876</v>
       </c>
       <c r="V20" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666831</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9981236446399</v>
+        <v>192.99812364464</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773866</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6949796735852</v>
+        <v>223.6949796735854</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.80835780120091</v>
+        <v>15.80835780120103</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601509</v>
       </c>
       <c r="D22" t="n">
-        <v>2.209018127008216</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177238</v>
+        <v>1.080551735177351</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815928</v>
+        <v>194.668934099647</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133762</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3938685259479</v>
+        <v>118.393868525948</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082662</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3833802714398</v>
+        <v>117.3833802714399</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724288</v>
+        <v>63.02848226724299</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331068</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1916469265038</v>
+        <v>224.1916469265039</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841857</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1842679287136</v>
+        <v>203.1842679287137</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9264054986191</v>
+        <v>224.9264054986192</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865964</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4997005366169</v>
+        <v>245.499700536617</v>
       </c>
       <c r="H23" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047491</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693574</v>
+        <v>7.327087780693697</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271198</v>
+        <v>53.87599349271211</v>
       </c>
       <c r="U23" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101876</v>
       </c>
       <c r="V23" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666831</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9981236446399</v>
+        <v>192.99812364464</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773866</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6949796735852</v>
+        <v>223.6949796735854</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>96.19049711964607</v>
       </c>
       <c r="I24" t="n">
-        <v>57.9020697188221</v>
+        <v>57.90206971882457</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.80835780120091</v>
+        <v>15.80835780120103</v>
       </c>
       <c r="C25" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601509</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>154.2454182866661</v>
+        <v>1.080551735177351</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815928</v>
+        <v>41.50406754815939</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133762</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3938685259479</v>
+        <v>118.393868525948</v>
       </c>
       <c r="V25" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082662</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3833802714398</v>
+        <v>270.5482468229275</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724288</v>
+        <v>63.02848226724299</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331068</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4059562765806</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9463115840788</v>
+        <v>47.94631158407881</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252746</v>
       </c>
       <c r="T26" t="n">
         <v>117.1465288645459</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H28" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468525</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537676</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T28" t="n">
         <v>127.1870160031714</v>
@@ -2779,7 +2779,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>266.4548033005474</v>
       </c>
       <c r="E29" t="n">
-        <v>288.196940870453</v>
+        <v>288.1969408704529</v>
       </c>
       <c r="F29" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G29" t="n">
-        <v>308.7702359084508</v>
+        <v>308.7702359084507</v>
       </c>
       <c r="H29" t="n">
         <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407881</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T29" t="n">
-        <v>117.1465288645459</v>
+        <v>117.1465288645458</v>
       </c>
       <c r="U29" t="n">
         <v>149.6530179828525</v>
@@ -2855,7 +2855,7 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X29" t="n">
-        <v>275.5689172492204</v>
+        <v>275.5689172492203</v>
       </c>
       <c r="Y29" t="n">
         <v>286.9655150454191</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.07889317303477</v>
+        <v>79.07889317303474</v>
       </c>
       <c r="C31" t="n">
-        <v>65.27888801843525</v>
+        <v>65.27888801843523</v>
       </c>
       <c r="D31" t="n">
-        <v>48.90025241601364</v>
+        <v>48.90025241601361</v>
       </c>
       <c r="E31" t="n">
-        <v>47.84800227179309</v>
+        <v>47.84800227179306</v>
       </c>
       <c r="F31" t="n">
-        <v>48.3149265999794</v>
+        <v>48.31492659997937</v>
       </c>
       <c r="G31" t="n">
-        <v>64.3510871070111</v>
+        <v>64.35108710701107</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218869</v>
+        <v>53.01713980218867</v>
       </c>
       <c r="I31" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468521</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65991636537675</v>
+        <v>34.65991636537672</v>
       </c>
       <c r="S31" t="n">
         <v>104.7746029199931</v>
       </c>
       <c r="T31" t="n">
-        <v>127.1870160031714</v>
+        <v>127.1870160031713</v>
       </c>
       <c r="U31" t="n">
         <v>181.6644038977817</v>
       </c>
       <c r="V31" t="n">
-        <v>155.4870295726604</v>
+        <v>155.4870295726603</v>
       </c>
       <c r="W31" t="n">
         <v>180.6539156432736</v>
@@ -3029,25 +3029,25 @@
         <v>284.8724782036176</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612993</v>
+        <v>272.8837951612994</v>
       </c>
       <c r="D32" t="n">
         <v>263.8650992058273</v>
       </c>
       <c r="E32" t="n">
-        <v>285.6072367757328</v>
+        <v>285.6072367757329</v>
       </c>
       <c r="F32" t="n">
         <v>304.77905286371</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137306</v>
+        <v>306.1805318137307</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818627</v>
+        <v>218.8162521818628</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935868</v>
+        <v>45.35660748935874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.0079190578073</v>
+        <v>68.00791905780736</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698257</v>
+        <v>114.5568247698258</v>
       </c>
       <c r="U32" t="n">
         <v>147.0633138881324</v>
@@ -3092,7 +3092,7 @@
         <v>253.6789549217536</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545002</v>
+        <v>272.9792131545003</v>
       </c>
       <c r="Y32" t="n">
         <v>284.375810950699</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831464</v>
+        <v>76.48918907831469</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371512</v>
+        <v>62.68918392371518</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129351</v>
+        <v>46.31054832129357</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707296</v>
+        <v>45.25829817707302</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525927</v>
+        <v>45.72522250525932</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229096</v>
+        <v>61.76138301229102</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746856</v>
+        <v>50.42743570746862</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996511</v>
+        <v>30.35677307996517</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065662</v>
+        <v>32.07021227065668</v>
       </c>
       <c r="S34" t="n">
-        <v>102.184898825273</v>
+        <v>102.1848988252731</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084512</v>
+        <v>124.5973119084513</v>
       </c>
       <c r="U34" t="n">
         <v>179.0746998030616</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779402</v>
+        <v>152.8973254779403</v>
       </c>
       <c r="W34" t="n">
         <v>178.0642115485535</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443566</v>
+        <v>123.7093135443567</v>
       </c>
       <c r="Y34" t="n">
         <v>114.5841813004243</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9374148203183</v>
+        <v>236.9374148203184</v>
       </c>
       <c r="C35" t="n">
-        <v>224.948731778</v>
+        <v>224.9487317780002</v>
       </c>
       <c r="D35" t="n">
-        <v>215.930035822528</v>
+        <v>215.9300358225281</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6721733924335</v>
+        <v>237.6721733924337</v>
       </c>
       <c r="F35" t="n">
-        <v>256.8439894804107</v>
+        <v>256.8439894804109</v>
       </c>
       <c r="G35" t="n">
-        <v>258.2454684304313</v>
+        <v>258.2454684304315</v>
       </c>
       <c r="H35" t="n">
-        <v>170.8811887985634</v>
+        <v>170.8811887985636</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450803</v>
+        <v>20.07285567450817</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652644</v>
+        <v>66.62176138652659</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483309</v>
+        <v>99.12825050483323</v>
       </c>
       <c r="V35" t="n">
-        <v>180.4437920604974</v>
+        <v>180.4437920604975</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7438915384543</v>
+        <v>205.7438915384544</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0441497712009</v>
+        <v>225.0441497712011</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.4407475673997</v>
+        <v>236.4407475673998</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.55412569501536</v>
+        <v>28.5541256950155</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041584</v>
+        <v>14.75412054041598</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899168</v>
+        <v>13.82631962899183</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169283</v>
+        <v>2.492372324169425</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.24983544197372</v>
+        <v>54.24983544197386</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515195</v>
+        <v>76.66224852515209</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197623</v>
+        <v>131.1396364197624</v>
       </c>
       <c r="V37" t="n">
-        <v>128.1770773838159</v>
+        <v>104.9622620946411</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1291481652542</v>
+        <v>130.1291481652543</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105732</v>
+        <v>75.77425016105747</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712501</v>
+        <v>89.86393320629854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9374148203183</v>
+        <v>236.9374148203185</v>
       </c>
       <c r="C38" t="n">
-        <v>224.948731778</v>
+        <v>224.9487317780002</v>
       </c>
       <c r="D38" t="n">
-        <v>215.930035822528</v>
+        <v>215.9300358225282</v>
       </c>
       <c r="E38" t="n">
-        <v>237.6721733924335</v>
+        <v>237.6721733924337</v>
       </c>
       <c r="F38" t="n">
-        <v>256.8439894804107</v>
+        <v>256.8439894804109</v>
       </c>
       <c r="G38" t="n">
-        <v>258.2454684304313</v>
+        <v>258.2454684304315</v>
       </c>
       <c r="H38" t="n">
-        <v>170.8811887985634</v>
+        <v>170.8811887985636</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.07285567450803</v>
+        <v>20.0728556745082</v>
       </c>
       <c r="T38" t="n">
-        <v>66.62176138652644</v>
+        <v>66.62176138652661</v>
       </c>
       <c r="U38" t="n">
-        <v>99.12825050483309</v>
+        <v>99.12825050483326</v>
       </c>
       <c r="V38" t="n">
-        <v>180.4437920604974</v>
+        <v>180.4437920604976</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7438915384543</v>
+        <v>205.7438915384545</v>
       </c>
       <c r="X38" t="n">
-        <v>225.0441497712009</v>
+        <v>225.0441497712011</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.4407475673997</v>
+        <v>236.4407475673999</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.55412569501536</v>
+        <v>28.55412569501553</v>
       </c>
       <c r="C40" t="n">
-        <v>14.75412054041584</v>
+        <v>14.75412054041601</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.82631962899168</v>
+        <v>13.82631962899185</v>
       </c>
       <c r="H40" t="n">
-        <v>2.492372324169283</v>
+        <v>2.492372324169453</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.1773103322481</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.24983544197372</v>
+        <v>54.24983544197389</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515195</v>
+        <v>81.69975348207711</v>
       </c>
       <c r="U40" t="n">
-        <v>131.1396364197623</v>
+        <v>131.1396364197625</v>
       </c>
       <c r="V40" t="n">
-        <v>104.9622620946409</v>
+        <v>104.9622620946411</v>
       </c>
       <c r="W40" t="n">
-        <v>153.3439634544293</v>
+        <v>130.1291481652544</v>
       </c>
       <c r="X40" t="n">
-        <v>75.77425016105732</v>
+        <v>75.77425016105749</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.64911791712501</v>
+        <v>66.64911791712518</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.8872195726043</v>
+        <v>257.8872195726042</v>
       </c>
       <c r="C41" t="n">
         <v>245.898536530286</v>
@@ -3749,13 +3749,13 @@
         <v>258.6219781447195</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7937942326967</v>
+        <v>263.6918008834126</v>
       </c>
       <c r="G41" t="n">
-        <v>279.1952731827174</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>147.206008841573</v>
+        <v>191.8309935508494</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.02266042679398</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>87.5715661388124</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>120.078055257119</v>
       </c>
       <c r="V41" t="n">
         <v>201.3935968127834</v>
@@ -3806,7 +3806,7 @@
         <v>245.9939545234869</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.3905523196857</v>
+        <v>257.3905523196856</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730137</v>
+        <v>49.50393044730131</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270185</v>
+        <v>35.7039252927018</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028024</v>
+        <v>19.32528969028019</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605969</v>
+        <v>18.27303954605964</v>
       </c>
       <c r="F43" t="n">
-        <v>18.739963874246</v>
+        <v>18.73996387424594</v>
       </c>
       <c r="G43" t="n">
-        <v>34.7761243812777</v>
+        <v>34.77612438127764</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645529</v>
+        <v>23.44217707645524</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448951842</v>
+        <v>3.371514448951785</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643352</v>
+        <v>5.084953639643295</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019425973</v>
+        <v>75.19964019425967</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743797</v>
+        <v>97.61205327743791</v>
       </c>
       <c r="U43" t="n">
         <v>152.0894411720483</v>
       </c>
       <c r="V43" t="n">
-        <v>125.912066846927</v>
+        <v>125.9120668469269</v>
       </c>
       <c r="W43" t="n">
         <v>151.0789529175402</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334334</v>
+        <v>96.72405491334328</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941102</v>
+        <v>87.59892266941097</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.8872195726043</v>
+        <v>257.8872195726042</v>
       </c>
       <c r="C44" t="n">
         <v>245.898536530286</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>236.879840574814</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447195</v>
+        <v>244.5199847954352</v>
       </c>
       <c r="F44" t="n">
         <v>277.7937942326967</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827174</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>191.8309935508494</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.02266042679398</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881244</v>
+        <v>87.57156613881239</v>
       </c>
       <c r="U44" t="n">
-        <v>120.0780552571191</v>
+        <v>120.078055257119</v>
       </c>
       <c r="V44" t="n">
-        <v>185.9988312823902</v>
+        <v>201.3935968127834</v>
       </c>
       <c r="W44" t="n">
         <v>226.6936962907403</v>
@@ -4043,7 +4043,7 @@
         <v>245.9939545234869</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196857</v>
+        <v>257.3905523196856</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.50393044730137</v>
+        <v>49.50393044730131</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270185</v>
+        <v>35.7039252927018</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028024</v>
+        <v>19.32528969028019</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954605969</v>
+        <v>18.27303954605964</v>
       </c>
       <c r="F46" t="n">
-        <v>18.739963874246</v>
+        <v>18.73996387424594</v>
       </c>
       <c r="G46" t="n">
-        <v>34.7761243812777</v>
+        <v>34.77612438127764</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645529</v>
+        <v>23.44217707645524</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448951842</v>
+        <v>3.371514448951785</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643352</v>
+        <v>5.084953639643295</v>
       </c>
       <c r="S46" t="n">
-        <v>75.19964019425973</v>
+        <v>75.19964019425967</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743797</v>
+        <v>97.61205327743791</v>
       </c>
       <c r="U46" t="n">
         <v>152.0894411720483</v>
       </c>
       <c r="V46" t="n">
-        <v>125.912066846927</v>
+        <v>125.9120668469269</v>
       </c>
       <c r="W46" t="n">
         <v>151.0789529175402</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334334</v>
+        <v>96.72405491334328</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941102</v>
+        <v>87.59892266941097</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D8" t="n">
         <v>21.02234760148574</v>
@@ -4805,22 +4805,22 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
@@ -4829,25 +4829,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
         <v>0.8007743026345088</v>
@@ -4884,22 +4884,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
@@ -4911,22 +4911,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>21.02234760148574</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,46 +4966,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S10" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1073.721403602878</v>
+        <v>840.4198283114482</v>
       </c>
       <c r="C11" t="n">
-        <v>1073.721403602878</v>
+        <v>678.6897015217988</v>
       </c>
       <c r="D11" t="n">
-        <v>925.7094720233231</v>
+        <v>409.5434355616501</v>
       </c>
       <c r="E11" t="n">
-        <v>634.6014509420575</v>
+        <v>409.5434355616501</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6014509420575</v>
+        <v>99.06994368444785</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7123237618041</v>
+        <v>99.06994368444785</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444775</v>
+        <v>99.06994368444785</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J11" t="n">
-        <v>167.3214431483646</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K11" t="n">
-        <v>474.4309080280418</v>
+        <v>357.748790802429</v>
       </c>
       <c r="L11" t="n">
-        <v>725.1541802501666</v>
+        <v>788.7152453613298</v>
       </c>
       <c r="M11" t="n">
-        <v>1210.837057653634</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N11" t="n">
-        <v>1683.107963385068</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O11" t="n">
-        <v>2076.816998319349</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P11" t="n">
-        <v>2380.681090994255</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q11" t="n">
-        <v>2531.966296137602</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="R11" t="n">
-        <v>2531.966296137602</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.655565680504</v>
+        <v>2460.655565680505</v>
       </c>
       <c r="T11" t="n">
-        <v>2342.325738544599</v>
+        <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2191.161073915455</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V11" t="n">
-        <v>2191.161073915455</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W11" t="n">
-        <v>1932.303842585683</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X11" t="n">
-        <v>1653.951400919804</v>
+        <v>1420.649825628374</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.08724430827</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405695</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815243</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717358</v>
+        <v>616.4512850717365</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286077</v>
       </c>
       <c r="F12" t="n">
-        <v>334.7294770784814</v>
+        <v>334.729477078482</v>
       </c>
       <c r="G12" t="n">
-        <v>206.2883833353461</v>
+        <v>206.2883833353462</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1262650326733</v>
+        <v>109.1262650326734</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J12" t="n">
-        <v>137.5067023934301</v>
+        <v>137.50670239343</v>
       </c>
       <c r="K12" t="n">
-        <v>412.4835038098271</v>
+        <v>311.0993713378295</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4672239188729</v>
+        <v>738.0830914468752</v>
       </c>
       <c r="M12" t="n">
-        <v>1395.87360066356</v>
+        <v>1294.489468191563</v>
       </c>
       <c r="N12" t="n">
-        <v>1980.401301569101</v>
+        <v>1879.017169097103</v>
       </c>
       <c r="O12" t="n">
-        <v>2439.62171957499</v>
+        <v>2338.237587102992</v>
       </c>
       <c r="P12" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.237587102992</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.966296137603</v>
@@ -5145,22 +5145,22 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972252</v>
       </c>
       <c r="Y12" t="n">
         <v>1076.41303762183</v>
@@ -5176,31 +5176,31 @@
         <v>414.9390970238699</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981778</v>
+        <v>349.0008262981777</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385681</v>
+        <v>299.606631938568</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125145</v>
+        <v>251.2753165125143</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509191</v>
+        <v>202.472360350919</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630291</v>
+        <v>137.4712622630288</v>
       </c>
       <c r="H13" t="n">
-        <v>83.91859579617146</v>
+        <v>83.9185957961715</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
         <v>110.0880241976686</v>
       </c>
       <c r="K13" t="n">
-        <v>272.7438500392107</v>
+        <v>272.7438500392108</v>
       </c>
       <c r="L13" t="n">
         <v>510.075516402062</v>
@@ -5218,16 +5218,16 @@
         <v>1449.480405090492</v>
       </c>
       <c r="Q13" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.089363937139</v>
+        <v>1498.089363937138</v>
       </c>
       <c r="S13" t="n">
         <v>1392.256431694721</v>
       </c>
       <c r="T13" t="n">
-        <v>1263.784698358185</v>
+        <v>1263.784698358184</v>
       </c>
       <c r="U13" t="n">
         <v>1080.285300481637</v>
@@ -5236,7 +5236,7 @@
         <v>923.2276948526876</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827143</v>
+        <v>740.7489921827142</v>
       </c>
       <c r="X13" t="n">
         <v>613.1742268907176</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>840.4198283114474</v>
+        <v>1187.75234613883</v>
       </c>
       <c r="C14" t="n">
-        <v>840.4198283114474</v>
+        <v>1187.75234613883</v>
       </c>
       <c r="D14" t="n">
-        <v>840.4198283114474</v>
+        <v>1187.75234613883</v>
       </c>
       <c r="E14" t="n">
-        <v>633.1858156390063</v>
+        <v>896.6443250575642</v>
       </c>
       <c r="F14" t="n">
-        <v>322.7123237618041</v>
+        <v>586.1708331803619</v>
       </c>
       <c r="G14" t="n">
-        <v>322.7123237618041</v>
+        <v>274.2817060001086</v>
       </c>
       <c r="H14" t="n">
-        <v>99.06994368444785</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J14" t="n">
-        <v>138.3634659549381</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K14" t="n">
-        <v>445.4729308346152</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L14" t="n">
-        <v>876.4393853935162</v>
+        <v>905.3973625869423</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.122262796984</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N14" t="n">
-        <v>1834.393168528417</v>
+        <v>1863.351145721843</v>
       </c>
       <c r="O14" t="n">
-        <v>2228.102203462698</v>
+        <v>2257.060180656124</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994258</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.655565680505</v>
+        <v>2460.655565680507</v>
       </c>
       <c r="T14" t="n">
-        <v>2342.3257385446</v>
+        <v>2342.325738544602</v>
       </c>
       <c r="U14" t="n">
-        <v>2191.161073915456</v>
+        <v>2191.161073915458</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.859498624024</v>
+        <v>1957.859498624027</v>
       </c>
       <c r="W14" t="n">
-        <v>1699.002267294253</v>
+        <v>1699.002267294255</v>
       </c>
       <c r="X14" t="n">
-        <v>1420.649825628373</v>
+        <v>1699.002267294255</v>
       </c>
       <c r="Y14" t="n">
-        <v>1130.785669016839</v>
+        <v>1478.118186844222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405692</v>
       </c>
       <c r="C15" t="n">
-        <v>755.2899220815239</v>
+        <v>755.289922081524</v>
       </c>
       <c r="D15" t="n">
         <v>616.451285071736</v>
@@ -5343,7 +5343,7 @@
         <v>469.4232751286072</v>
       </c>
       <c r="F15" t="n">
-        <v>334.7294770784816</v>
+        <v>334.7294770784815</v>
       </c>
       <c r="G15" t="n">
         <v>206.2883833353462</v>
@@ -5352,19 +5352,19 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J15" t="n">
-        <v>137.5067023934301</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="K15" t="n">
-        <v>412.483503809827</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L15" t="n">
-        <v>839.4672239188728</v>
+        <v>752.5998474481946</v>
       </c>
       <c r="M15" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416573</v>
       </c>
       <c r="N15" t="n">
         <v>1523.131416247198</v>
@@ -5373,7 +5373,7 @@
         <v>1982.351834253087</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.237587102992</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.966296137603</v>
@@ -5419,37 +5419,37 @@
         <v>299.6066319385681</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125143</v>
+        <v>251.2753165125144</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509189</v>
+        <v>202.472360350919</v>
       </c>
       <c r="G16" t="n">
         <v>137.4712622630289</v>
       </c>
       <c r="H16" t="n">
-        <v>83.91859579617156</v>
+        <v>83.9185957961716</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J16" t="n">
         <v>110.0880241976686</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392117</v>
+        <v>272.7438500392107</v>
       </c>
       <c r="L16" t="n">
-        <v>510.075516402063</v>
+        <v>510.0755164020619</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489999</v>
+        <v>766.7021857489988</v>
       </c>
       <c r="N16" t="n">
-        <v>1022.877469947109</v>
+        <v>1022.877469947108</v>
       </c>
       <c r="O16" t="n">
-        <v>1256.335318182741</v>
+        <v>1256.33531818274</v>
       </c>
       <c r="P16" t="n">
         <v>1449.480405090492</v>
@@ -5498,22 +5498,22 @@
         <v>932.1138193839456</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914011</v>
+        <v>704.915429991401</v>
       </c>
       <c r="F17" t="n">
-        <v>458.35156980292</v>
+        <v>458.3515698029198</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3720743113874</v>
+        <v>210.3720743113876</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J17" t="n">
-        <v>167.3214431483645</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K17" t="n">
         <v>474.4309080280415</v>
@@ -5525,37 +5525,37 @@
         <v>1391.08023999041</v>
       </c>
       <c r="N17" t="n">
-        <v>1683.10796338507</v>
+        <v>1683.107963385072</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.816998319351</v>
+        <v>2076.816998319353</v>
       </c>
       <c r="P17" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994258</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.565197369227</v>
+        <v>2524.565197369228</v>
       </c>
       <c r="T17" t="n">
-        <v>2470.145001922043</v>
+        <v>2470.145001922044</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981621</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378911</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.55042573786</v>
       </c>
       <c r="X17" t="n">
-        <v>1804.107615760701</v>
+        <v>1804.107615760702</v>
       </c>
       <c r="Y17" t="n">
         <v>1578.153090837888</v>
@@ -5589,13 +5589,13 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J18" t="n">
-        <v>137.50670239343</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K18" t="n">
-        <v>412.4835038098269</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L18" t="n">
         <v>839.4672239188726</v>
@@ -5604,7 +5604,7 @@
         <v>1395.87360066356</v>
       </c>
       <c r="N18" t="n">
-        <v>1980.4013015691</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O18" t="n">
         <v>1982.351834253087</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.4714177745374</v>
+        <v>53.75943135889237</v>
       </c>
       <c r="C19" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="D19" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="E19" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="F19" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="K19" t="n">
         <v>111.680639158038</v>
@@ -5698,25 +5698,25 @@
         <v>780.3446311780376</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243414</v>
+        <v>583.7093442086972</v>
       </c>
       <c r="T19" t="n">
-        <v>673.8592289765257</v>
+        <v>519.1472425608814</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2694627886997</v>
+        <v>399.5574763730552</v>
       </c>
       <c r="V19" t="n">
-        <v>461.1214888484709</v>
+        <v>306.4095024328263</v>
       </c>
       <c r="W19" t="n">
-        <v>342.5524178672186</v>
+        <v>187.8404314515739</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8872842639429</v>
+        <v>124.1752978482981</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.4394559575686</v>
+        <v>69.72746954192371</v>
       </c>
     </row>
     <row r="20">
@@ -5735,58 +5735,58 @@
         <v>932.1138193839456</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914011</v>
+        <v>704.915429991401</v>
       </c>
       <c r="F20" t="n">
-        <v>458.35156980292</v>
+        <v>458.3515698029198</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113874</v>
+        <v>210.3720743113876</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J20" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
-        <v>294.1877256912687</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L20" t="n">
-        <v>725.1541802501696</v>
+        <v>905.3973625869423</v>
       </c>
       <c r="M20" t="n">
-        <v>1210.837057653637</v>
+        <v>1210.837057653639</v>
       </c>
       <c r="N20" t="n">
-        <v>1683.10796338507</v>
+        <v>1683.107963385072</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.816998319351</v>
+        <v>2076.816998319353</v>
       </c>
       <c r="P20" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994258</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.565197369227</v>
+        <v>2524.565197369228</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922043</v>
+        <v>2470.145001922044</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981621</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378911</v>
       </c>
       <c r="W20" t="n">
         <v>2018.55042573786</v>
@@ -5795,7 +5795,7 @@
         <v>1804.107615760702</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837889</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K21" t="n">
-        <v>325.6161273391489</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L21" t="n">
-        <v>752.5998474481946</v>
+        <v>839.4672239188726</v>
       </c>
       <c r="M21" t="n">
-        <v>1309.006224192882</v>
+        <v>938.6037153416573</v>
       </c>
       <c r="N21" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O21" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.4714177745374</v>
+        <v>53.75943135889237</v>
       </c>
       <c r="C22" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="D22" t="n">
-        <v>204.2114472961439</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="E22" t="n">
-        <v>204.2114472961439</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="F22" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="K22" t="n">
         <v>111.680639158038</v>
@@ -5935,25 +5935,25 @@
         <v>780.3446311780376</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243414</v>
+        <v>583.7093442086972</v>
       </c>
       <c r="T22" t="n">
-        <v>673.8592289765257</v>
+        <v>519.1472425608814</v>
       </c>
       <c r="U22" t="n">
-        <v>554.2694627886997</v>
+        <v>399.5574763730552</v>
       </c>
       <c r="V22" t="n">
-        <v>461.1214888484709</v>
+        <v>306.4095024328263</v>
       </c>
       <c r="W22" t="n">
-        <v>342.5524178672186</v>
+        <v>187.8404314515739</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8872842639429</v>
+        <v>124.1752978482981</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.4394559575686</v>
+        <v>69.72746954192371</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1351.696881821218</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.350453655373</v>
+        <v>1137.350453655374</v>
       </c>
       <c r="D23" t="n">
-        <v>932.1138193839456</v>
+        <v>932.1138193839461</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914007</v>
+        <v>704.9154299914014</v>
       </c>
       <c r="F23" t="n">
-        <v>458.3515698029196</v>
+        <v>458.3515698029203</v>
       </c>
       <c r="G23" t="n">
-        <v>210.3720743113874</v>
+        <v>210.3720743113876</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>357.748790802429</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L23" t="n">
-        <v>788.7152453613298</v>
+        <v>905.3973625869423</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.398122764797</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N23" t="n">
-        <v>1746.66902849623</v>
+        <v>1683.107963385072</v>
       </c>
       <c r="O23" t="n">
-        <v>2140.378063430511</v>
+        <v>2076.816998319353</v>
       </c>
       <c r="P23" t="n">
-        <v>2444.242156105417</v>
+        <v>2380.681090994258</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369228</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922044</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981622</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378911</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.55042573786</v>
+        <v>2018.550425737861</v>
       </c>
       <c r="X23" t="n">
-        <v>1804.107615760702</v>
+        <v>1804.107615760703</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837889</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.9935948405692</v>
+        <v>916.9935948405716</v>
       </c>
       <c r="C24" t="n">
-        <v>755.289922081524</v>
+        <v>755.2899220815264</v>
       </c>
       <c r="D24" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717384</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286096</v>
       </c>
       <c r="F24" t="n">
-        <v>334.7294770784815</v>
+        <v>334.729477078484</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353487</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1262650326734</v>
+        <v>109.1262650326759</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J24" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K24" t="n">
-        <v>50.63932592275207</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L24" t="n">
-        <v>477.6230460317977</v>
+        <v>839.4672239188726</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.029422776485</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N24" t="n">
-        <v>1618.557123682025</v>
+        <v>1523.1314162472</v>
       </c>
       <c r="O24" t="n">
-        <v>2077.777541687914</v>
+        <v>1982.351834253089</v>
       </c>
       <c r="P24" t="n">
-        <v>2433.663294537819</v>
+        <v>2338.237587102994</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137605</v>
       </c>
       <c r="R24" t="n">
-        <v>2490.026424787638</v>
+        <v>2490.02642478764</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533766</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509664</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412815</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861149</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094459</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972254</v>
       </c>
       <c r="Y24" t="n">
-        <v>1076.41303762183</v>
+        <v>1076.413037621832</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.4714177745374</v>
+        <v>53.75943135889237</v>
       </c>
       <c r="C25" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="D25" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="E25" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="F25" t="n">
-        <v>206.4427787375663</v>
+        <v>51.73079232192115</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275211</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6172,25 +6172,25 @@
         <v>780.3446311780376</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4213306243414</v>
+        <v>738.4213306243413</v>
       </c>
       <c r="T25" t="n">
-        <v>673.8592289765257</v>
+        <v>673.8592289765255</v>
       </c>
       <c r="U25" t="n">
-        <v>554.2694627886997</v>
+        <v>554.2694627886992</v>
       </c>
       <c r="V25" t="n">
-        <v>461.1214888484709</v>
+        <v>461.1214888484703</v>
       </c>
       <c r="W25" t="n">
-        <v>342.5524178672186</v>
+        <v>187.8404314515739</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8872842639429</v>
+        <v>124.1752978482981</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.4394559575686</v>
+        <v>69.72746954192371</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.833564437764</v>
+        <v>1802.833564437765</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.577504583199</v>
+        <v>1524.5775045832</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.43123862305</v>
+        <v>1255.431238623051</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417846</v>
+        <v>964.3232175417857</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645824</v>
+        <v>653.8497256645835</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843292</v>
+        <v>341.9605984843297</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069742</v>
       </c>
       <c r="I26" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J26" t="n">
-        <v>288.1842304771471</v>
+        <v>192.3395430980104</v>
       </c>
       <c r="K26" t="n">
-        <v>696.9082079630803</v>
+        <v>601.0635205839436</v>
       </c>
       <c r="L26" t="n">
-        <v>1229.489175128238</v>
+        <v>1133.644487749101</v>
       </c>
       <c r="M26" t="n">
-        <v>1816.786565137962</v>
+        <v>1720.941877758825</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096513</v>
+        <v>2294.827296096514</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.15084363705</v>
+        <v>2790.150843637051</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.629448918212</v>
+        <v>3195.629448918213</v>
       </c>
       <c r="Q26" t="n">
-        <v>3448.529166667815</v>
+        <v>3448.529166667816</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.380032263919</v>
+        <v>3494.380032263921</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806821</v>
+        <v>3423.069301806822</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.739474670916</v>
+        <v>3304.739474670917</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.574810041772</v>
+        <v>3153.574810041773</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.273234750341</v>
+        <v>2920.273234750342</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.41600342057</v>
+        <v>2661.416003420571</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.06356175469</v>
+        <v>2383.063561754691</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143156</v>
+        <v>2093.199405143157</v>
       </c>
     </row>
     <row r="27">
@@ -6291,22 +6291,22 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F27" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G27" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H27" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J27" t="n">
         <v>156.7549771159564</v>
       </c>
       <c r="K27" t="n">
-        <v>431.7317785323533</v>
+        <v>431.7317785323534</v>
       </c>
       <c r="L27" t="n">
         <v>858.7154986413991</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463961</v>
+        <v>434.1873717463957</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2491010207039</v>
+        <v>368.2491010207035</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610942</v>
+        <v>318.8549066610938</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350405</v>
+        <v>270.5235912350401</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734451</v>
+        <v>221.7206350734447</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855551</v>
+        <v>156.7195369855547</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1668705186978</v>
+        <v>103.1668705186976</v>
       </c>
       <c r="I28" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J28" t="n">
-        <v>129.3362989201948</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.992124761737</v>
+        <v>291.9921247617372</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245883</v>
+        <v>529.3237911245884</v>
       </c>
       <c r="M28" t="n">
-        <v>785.950460471525</v>
+        <v>785.9504604715253</v>
       </c>
       <c r="N28" t="n">
         <v>1042.125744669634</v>
@@ -6409,7 +6409,7 @@
         <v>1517.337638659665</v>
       </c>
       <c r="S28" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T28" t="n">
         <v>1283.032973080711</v>
@@ -6421,13 +6421,13 @@
         <v>942.4759695752139</v>
       </c>
       <c r="W28" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052402</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132438</v>
+        <v>632.4225016132434</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181484</v>
+        <v>514.065041618148</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.833564437765</v>
+        <v>1802.833564437766</v>
       </c>
       <c r="C29" t="n">
         <v>1524.5775045832</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.431238623051</v>
+        <v>1255.431238623052</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417857</v>
+        <v>964.3232175417859</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8497256645835</v>
+        <v>653.8497256645837</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843301</v>
+        <v>341.9605984843304</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069742</v>
       </c>
       <c r="I29" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527841</v>
       </c>
       <c r="J29" t="n">
         <v>288.1842304771471</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630803</v>
+        <v>696.9082079630804</v>
       </c>
       <c r="L29" t="n">
         <v>1229.489175128238</v>
       </c>
       <c r="M29" t="n">
-        <v>1720.941877758823</v>
+        <v>1720.941877758824</v>
       </c>
       <c r="N29" t="n">
-        <v>2294.827296096513</v>
+        <v>2294.827296096514</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.15084363705</v>
+        <v>2790.150843637051</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.629448918212</v>
+        <v>3195.629448918213</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.529166667815</v>
+        <v>3448.529166667816</v>
       </c>
       <c r="R29" t="n">
-        <v>3494.380032263919</v>
+        <v>3494.38003226392</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806821</v>
+        <v>3423.069301806822</v>
       </c>
       <c r="T29" t="n">
         <v>3304.739474670917</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041773</v>
+        <v>3153.574810041774</v>
       </c>
       <c r="V29" t="n">
         <v>2920.273234750342</v>
@@ -6503,7 +6503,7 @@
         <v>2661.416003420571</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.063561754691</v>
+        <v>2383.063561754692</v>
       </c>
       <c r="Y29" t="n">
         <v>2093.199405143157</v>
@@ -6528,16 +6528,16 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F30" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G30" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H30" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I30" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527841</v>
       </c>
       <c r="J30" t="n">
         <v>156.7549771159564</v>
@@ -6549,7 +6549,7 @@
         <v>858.7154986413989</v>
       </c>
       <c r="M30" t="n">
-        <v>957.8519900641836</v>
+        <v>1415.121875386086</v>
       </c>
       <c r="N30" t="n">
         <v>1542.379690969724</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.187371746396</v>
+        <v>434.1873717463959</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207038</v>
+        <v>368.2491010207037</v>
       </c>
       <c r="D31" t="n">
-        <v>318.8549066610941</v>
+        <v>318.854906661094</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350405</v>
+        <v>270.5235912350404</v>
       </c>
       <c r="F31" t="n">
-        <v>221.7206350734451</v>
+        <v>221.720635073445</v>
       </c>
       <c r="G31" t="n">
         <v>156.7195369855551</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1668705186981</v>
+        <v>103.1668705186978</v>
       </c>
       <c r="I31" t="n">
-        <v>69.8876006452784</v>
+        <v>69.88760064527841</v>
       </c>
       <c r="J31" t="n">
-        <v>129.3362989201952</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617376</v>
+        <v>291.9921247617372</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245889</v>
+        <v>529.3237911245884</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715255</v>
+        <v>785.9504604715253</v>
       </c>
       <c r="N31" t="n">
-        <v>1042.125744669635</v>
+        <v>1042.125744669634</v>
       </c>
       <c r="O31" t="n">
-        <v>1275.583592905267</v>
+        <v>1275.583592905266</v>
       </c>
       <c r="P31" t="n">
-        <v>1468.728679813018</v>
+        <v>1468.728679813017</v>
       </c>
       <c r="Q31" t="n">
-        <v>1552.347655190349</v>
+        <v>1552.347655190348</v>
       </c>
       <c r="R31" t="n">
-        <v>1517.337638659665</v>
+        <v>1517.337638659664</v>
       </c>
       <c r="S31" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.032973080711</v>
+        <v>1283.03297308071</v>
       </c>
       <c r="U31" t="n">
-        <v>1099.533575204164</v>
+        <v>1099.533575204163</v>
       </c>
       <c r="V31" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752135</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052402</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132438</v>
+        <v>632.4225016132435</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181484</v>
+        <v>514.0650416181481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.721751081554</v>
+        <v>1783.721751081555</v>
       </c>
       <c r="C32" t="n">
         <v>1508.081553948929</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.551150710719</v>
+        <v>1241.55115071072</v>
       </c>
       <c r="E32" t="n">
-        <v>953.058992351393</v>
+        <v>953.0589923513935</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961304</v>
+        <v>645.2013631961311</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378165</v>
+        <v>335.9280987378171</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9015813824001</v>
+        <v>114.9015813824002</v>
       </c>
       <c r="I32" t="n">
-        <v>69.08682634264389</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J32" t="n">
-        <v>235.96869119613</v>
+        <v>289.9472632282855</v>
       </c>
       <c r="K32" t="n">
-        <v>543.0781560758069</v>
+        <v>701.2350477679915</v>
       </c>
       <c r="L32" t="n">
-        <v>1078.222930294737</v>
+        <v>1236.379821986922</v>
       </c>
       <c r="M32" t="n">
-        <v>1668.084127358234</v>
+        <v>1722.062699390389</v>
       </c>
       <c r="N32" t="n">
-        <v>2244.533352749696</v>
+        <v>2298.511924781851</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.420707344006</v>
+        <v>2742.420707344007</v>
       </c>
       <c r="P32" t="n">
         <v>3150.463119678941</v>
@@ -6722,28 +6722,28 @@
         <v>3405.926644482317</v>
       </c>
       <c r="R32" t="n">
-        <v>3454.341317132194</v>
+        <v>3454.341317132195</v>
       </c>
       <c r="S32" t="n">
         <v>3385.646449397035</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.932484983069</v>
+        <v>3269.93248498307</v>
       </c>
       <c r="U32" t="n">
-        <v>3121.383683075865</v>
+        <v>3121.383683075866</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506373</v>
+        <v>2890.697970506374</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.456601898541</v>
+        <v>2634.456601898542</v>
       </c>
       <c r="X32" t="n">
         <v>2358.720022954602</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065006</v>
+        <v>2071.471729065007</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>127.5737654525652</v>
       </c>
       <c r="I33" t="n">
-        <v>69.08682634264389</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J33" t="n">
-        <v>155.9542028133218</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297187</v>
+        <v>344.0636277590408</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387645</v>
+        <v>771.0473478680865</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.321101083452</v>
+        <v>1327.453724612774</v>
       </c>
       <c r="N33" t="n">
         <v>1541.578916667089</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901848</v>
+        <v>415.0755583901852</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864321</v>
+        <v>351.7531503864325</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487619</v>
+        <v>304.9748187487623</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446478</v>
+        <v>259.2593660446481</v>
       </c>
       <c r="F34" t="n">
-        <v>213.072272604992</v>
+        <v>213.0722726049922</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390415</v>
+        <v>150.6870372390417</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412379</v>
+        <v>99.75023349412388</v>
       </c>
       <c r="I34" t="n">
-        <v>69.08682634264389</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J34" t="n">
-        <v>131.0993316713334</v>
+        <v>131.0993316713333</v>
       </c>
       <c r="K34" t="n">
-        <v>233.9547045854325</v>
+        <v>296.3189645666483</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8501780020566</v>
+        <v>536.2144379832724</v>
       </c>
       <c r="M34" t="n">
-        <v>733.0406544027664</v>
+        <v>795.4049143839823</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546484</v>
+        <v>1054.144005635864</v>
       </c>
       <c r="O34" t="n">
         <v>1227.801400944054</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.510294905578</v>
+        <v>1423.510294905579</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336681</v>
+        <v>1509.693077336682</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.298923527937</v>
+        <v>1477.298923527938</v>
       </c>
       <c r="S34" t="n">
         <v>1374.08185400746</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.225983392862</v>
+        <v>1248.225983392863</v>
       </c>
       <c r="U34" t="n">
         <v>1067.342448238255</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312445</v>
+        <v>912.900705331245</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832106</v>
+        <v>733.0378653832112</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131535</v>
+        <v>608.0789628131539</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399976</v>
+        <v>492.337365539998</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1432.622392258136</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068237</v>
+        <v>1205.401451068236</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727538</v>
+        <v>987.2903037727533</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561543</v>
+        <v>747.2174013561535</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436182</v>
+        <v>487.7790281436171</v>
       </c>
       <c r="G35" t="n">
-        <v>226.9250196280296</v>
+        <v>226.9250196280298</v>
       </c>
       <c r="H35" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I35" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409502</v>
+        <v>170.9998754409519</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206271</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L35" t="n">
-        <v>909.075794879528</v>
+        <v>909.0757948795297</v>
       </c>
       <c r="M35" t="n">
-        <v>1394.758672282996</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N35" t="n">
-        <v>1867.029578014429</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O35" t="n">
-        <v>2260.738612948709</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P35" t="n">
-        <v>2564.602705623615</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q35" t="n">
-        <v>2715.887910766962</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R35" t="n">
-        <v>2715.887910766962</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.61229897453</v>
+        <v>2695.612298974531</v>
       </c>
       <c r="T35" t="n">
-        <v>2628.317590503291</v>
+        <v>2628.317590503292</v>
       </c>
       <c r="U35" t="n">
-        <v>2528.188044538813</v>
+        <v>2528.188044538814</v>
       </c>
       <c r="V35" t="n">
         <v>2345.921587912048</v>
@@ -6999,7 +6999,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F36" t="n">
         <v>338.4079093710687</v>
@@ -7011,7 +7011,7 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I36" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J36" t="n">
         <v>141.1851346860172</v>
@@ -7020,19 +7020,19 @@
         <v>416.1619361024141</v>
       </c>
       <c r="L36" t="n">
-        <v>843.1456562114597</v>
+        <v>843.1456562114598</v>
       </c>
       <c r="M36" t="n">
-        <v>942.2821476342442</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N36" t="n">
-        <v>1526.809848539785</v>
+        <v>1984.079733861688</v>
       </c>
       <c r="O36" t="n">
-        <v>1986.030266545673</v>
+        <v>2443.300151867576</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.916019395578</v>
+        <v>2535.64472843019</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.64472843019</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.70443750178046</v>
+        <v>85.70443750178094</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80128544075436</v>
+        <v>70.8012854407547</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075436</v>
+        <v>70.8012854407547</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075436</v>
+        <v>70.8012854407547</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075436</v>
+        <v>70.8012854407547</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753043</v>
+        <v>56.83530601753063</v>
       </c>
       <c r="H37" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I37" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J37" t="n">
-        <v>54.31775821533924</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K37" t="n">
         <v>115.3590714506252</v>
       </c>
       <c r="L37" t="n">
-        <v>251.0762252072201</v>
+        <v>251.0762252072202</v>
       </c>
       <c r="M37" t="n">
-        <v>406.0883819479008</v>
+        <v>406.0883819479009</v>
       </c>
       <c r="N37" t="n">
-        <v>560.6491535397536</v>
+        <v>560.6491535397537</v>
       </c>
       <c r="O37" t="n">
-        <v>692.4924891691295</v>
+        <v>692.4924891691296</v>
       </c>
       <c r="P37" t="n">
-        <v>784.0230634706247</v>
+        <v>784.0230634706248</v>
       </c>
       <c r="Q37" t="n">
-        <v>784.0230634706247</v>
+        <v>784.0230634706248</v>
       </c>
       <c r="R37" t="n">
-        <v>784.0230634706247</v>
+        <v>784.0230634706248</v>
       </c>
       <c r="S37" t="n">
-        <v>729.2252498928735</v>
+        <v>729.2252498928734</v>
       </c>
       <c r="T37" t="n">
-        <v>651.7886352210029</v>
+        <v>651.7886352210026</v>
       </c>
       <c r="U37" t="n">
-        <v>519.3243560091217</v>
+        <v>519.3243560091213</v>
       </c>
       <c r="V37" t="n">
-        <v>389.8525606719339</v>
+        <v>413.3018690448374</v>
       </c>
       <c r="W37" t="n">
-        <v>258.4089766666266</v>
+        <v>281.85828503953</v>
       </c>
       <c r="X37" t="n">
-        <v>181.869330039296</v>
+        <v>205.3186384121992</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5469887088667</v>
+        <v>114.5469887088673</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1205.401451068236</v>
       </c>
       <c r="D38" t="n">
-        <v>987.290303772753</v>
+        <v>987.2903037727528</v>
       </c>
       <c r="E38" t="n">
-        <v>747.2174013561535</v>
+        <v>747.2174013561531</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436174</v>
+        <v>487.7790281436169</v>
       </c>
       <c r="G38" t="n">
-        <v>226.9250196280296</v>
+        <v>226.9250196280298</v>
       </c>
       <c r="H38" t="n">
         <v>54.31775821533925</v>
@@ -7178,7 +7178,7 @@
         <v>478.1093403206286</v>
       </c>
       <c r="L38" t="n">
-        <v>909.0757948795289</v>
+        <v>909.0757948795294</v>
       </c>
       <c r="M38" t="n">
         <v>1394.758672282996</v>
@@ -7202,19 +7202,19 @@
         <v>2695.61229897453</v>
       </c>
       <c r="T38" t="n">
-        <v>2628.317590503292</v>
+        <v>2628.317590503291</v>
       </c>
       <c r="U38" t="n">
-        <v>2528.188044538812</v>
+        <v>2528.188044538814</v>
       </c>
       <c r="V38" t="n">
-        <v>2345.921587912047</v>
+        <v>2345.921587912048</v>
       </c>
       <c r="W38" t="n">
-        <v>2138.099475246942</v>
+        <v>2138.099475246943</v>
       </c>
       <c r="X38" t="n">
-        <v>1910.782152245729</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y38" t="n">
         <v>1671.953114298861</v>
@@ -7260,10 +7260,10 @@
         <v>843.1456562114597</v>
       </c>
       <c r="M39" t="n">
-        <v>942.2821476342442</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N39" t="n">
-        <v>1526.809848539785</v>
+        <v>1984.079733861687</v>
       </c>
       <c r="O39" t="n">
         <v>1986.030266545673</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.70443750178048</v>
+        <v>85.70443750178099</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075437</v>
+        <v>70.80128544075471</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075437</v>
+        <v>70.80128544075471</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075437</v>
+        <v>70.80128544075471</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075437</v>
+        <v>70.80128544075471</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753045</v>
+        <v>56.83530601753062</v>
       </c>
       <c r="H40" t="n">
         <v>54.31775821533925</v>
@@ -7351,31 +7351,31 @@
         <v>784.0230634706248</v>
       </c>
       <c r="Q40" t="n">
-        <v>784.0230634706248</v>
+        <v>765.6621439431015</v>
       </c>
       <c r="R40" t="n">
-        <v>784.0230634706248</v>
+        <v>765.6621439431015</v>
       </c>
       <c r="S40" t="n">
-        <v>729.2252498928736</v>
+        <v>710.86433036535</v>
       </c>
       <c r="T40" t="n">
-        <v>651.788635221003</v>
+        <v>628.3393268481004</v>
       </c>
       <c r="U40" t="n">
-        <v>519.3243560091219</v>
+        <v>495.8750476362191</v>
       </c>
       <c r="V40" t="n">
-        <v>413.301869044838</v>
+        <v>389.8525606719351</v>
       </c>
       <c r="W40" t="n">
-        <v>258.4089766666266</v>
+        <v>258.4089766666277</v>
       </c>
       <c r="X40" t="n">
-        <v>181.869330039296</v>
+        <v>181.8693300392969</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.5469887088667</v>
+        <v>114.5469887088674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1514.51516377777</v>
+        <v>1263.331040724513</v>
       </c>
       <c r="C41" t="n">
-        <v>1266.132803646168</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D41" t="n">
-        <v>1026.860237408982</v>
+        <v>775.6761143557246</v>
       </c>
       <c r="E41" t="n">
-        <v>765.6259160506797</v>
+        <v>514.4417929974225</v>
       </c>
       <c r="F41" t="n">
-        <v>485.0261238964406</v>
+        <v>248.0864385697326</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0106964391503</v>
+        <v>248.0864385697326</v>
       </c>
       <c r="H41" t="n">
         <v>54.31775821533925</v>
@@ -7424,7 +7424,7 @@
         <v>1867.02957801443</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.73861294871</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P41" t="n">
         <v>2564.602705623616</v>
@@ -7436,25 +7436,25 @@
         <v>2715.887910766963</v>
       </c>
       <c r="S41" t="n">
-        <v>2715.887910766963</v>
+        <v>2674.450880032828</v>
       </c>
       <c r="T41" t="n">
-        <v>2715.887910766963</v>
+        <v>2585.994752619886</v>
       </c>
       <c r="U41" t="n">
-        <v>2715.887910766963</v>
+        <v>2464.703787713705</v>
       </c>
       <c r="V41" t="n">
-        <v>2512.460035198495</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W41" t="n">
-        <v>2283.476503591686</v>
+        <v>2032.292380538428</v>
       </c>
       <c r="X41" t="n">
-        <v>2034.99776164877</v>
+        <v>1783.813638595513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1775.007304760199</v>
+        <v>1523.823181706941</v>
       </c>
     </row>
     <row r="42">
@@ -7500,7 +7500,7 @@
         <v>1399.552032956147</v>
       </c>
       <c r="N42" t="n">
-        <v>1526.809848539785</v>
+        <v>1984.079733861687</v>
       </c>
       <c r="O42" t="n">
         <v>1986.030266545673</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557156</v>
+        <v>209.5016312557152</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529865</v>
+        <v>173.4370602529862</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163398</v>
+        <v>153.9165656163395</v>
       </c>
       <c r="E43" t="n">
-        <v>135.4589499132492</v>
+        <v>135.458949913249</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746169</v>
+        <v>116.5296934746167</v>
       </c>
       <c r="G43" t="n">
-        <v>81.4022951096899</v>
+        <v>81.40229510968979</v>
       </c>
       <c r="H43" t="n">
-        <v>57.72332836579566</v>
+        <v>57.7233283657956</v>
       </c>
       <c r="I43" t="n">
         <v>54.31775821533925</v>
       </c>
       <c r="J43" t="n">
-        <v>143.0456695887319</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="K43" t="n">
-        <v>334.9807085287501</v>
+        <v>115.3590714506252</v>
       </c>
       <c r="L43" t="n">
-        <v>470.6978622853451</v>
+        <v>251.0762252072202</v>
       </c>
       <c r="M43" t="n">
-        <v>625.7100190260257</v>
+        <v>437.0720214897369</v>
       </c>
       <c r="N43" t="n">
-        <v>780.2707906178786</v>
+        <v>591.6327930815897</v>
       </c>
       <c r="O43" t="n">
-        <v>912.1141262472545</v>
+        <v>723.4761287109657</v>
       </c>
       <c r="P43" t="n">
-        <v>1058.798617193001</v>
+        <v>945.9004287171932</v>
       </c>
       <c r="Q43" t="n">
-        <v>1058.798617193001</v>
+        <v>1058.798617193</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.66230038528</v>
+        <v>1053.662300385279</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658259</v>
+        <v>977.7030678658251</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522523</v>
+        <v>879.1050342522515</v>
       </c>
       <c r="U43" t="n">
-        <v>725.4793360986681</v>
+        <v>725.4793360986674</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926812</v>
+        <v>598.2954301926807</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456709</v>
+        <v>445.6904272456704</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766373</v>
+        <v>347.9893616766367</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045049</v>
+        <v>259.5056014045044</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.318339671167</v>
+        <v>1263.331040724512</v>
       </c>
       <c r="C44" t="n">
-        <v>1071.935979539564</v>
+        <v>1014.94868059291</v>
       </c>
       <c r="D44" t="n">
-        <v>1071.935979539564</v>
+        <v>775.6761143557246</v>
       </c>
       <c r="E44" t="n">
-        <v>810.7016581812618</v>
+        <v>528.6862307239717</v>
       </c>
       <c r="F44" t="n">
-        <v>530.1018660270229</v>
+        <v>248.0864385697326</v>
       </c>
       <c r="G44" t="n">
         <v>248.0864385697326</v>
       </c>
       <c r="H44" t="n">
-        <v>54.31775821533927</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="I44" t="n">
-        <v>54.31775821533927</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409519</v>
+        <v>170.9998754409517</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206287</v>
+        <v>478.1093403206286</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795297</v>
+        <v>909.0757948795294</v>
       </c>
       <c r="M44" t="n">
         <v>1394.758672282997</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.029578014431</v>
+        <v>1867.029578014429</v>
       </c>
       <c r="O44" t="n">
-        <v>2260.738612948711</v>
+        <v>2260.73861294871</v>
       </c>
       <c r="P44" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623616</v>
       </c>
       <c r="Q44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766963</v>
       </c>
       <c r="R44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766963</v>
       </c>
       <c r="S44" t="n">
-        <v>2715.887910766964</v>
+        <v>2674.450880032827</v>
       </c>
       <c r="T44" t="n">
-        <v>2627.431783354022</v>
+        <v>2585.994752619886</v>
       </c>
       <c r="U44" t="n">
-        <v>2506.140818447841</v>
+        <v>2464.703787713705</v>
       </c>
       <c r="V44" t="n">
-        <v>2318.263211091891</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W44" t="n">
-        <v>2089.279679485083</v>
+        <v>2032.292380538428</v>
       </c>
       <c r="X44" t="n">
-        <v>1840.800937542167</v>
+        <v>1783.813638595512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.810480653595</v>
+        <v>1523.823181706941</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1017074211944</v>
+        <v>473.1017074211943</v>
       </c>
       <c r="F45" t="n">
         <v>338.4079093710687</v>
@@ -7722,28 +7722,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I45" t="n">
-        <v>54.31775821533927</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="J45" t="n">
-        <v>141.1851346860172</v>
+        <v>110.89896947316</v>
       </c>
       <c r="K45" t="n">
-        <v>416.1619361024141</v>
+        <v>385.8757708895569</v>
       </c>
       <c r="L45" t="n">
-        <v>843.1456562114597</v>
+        <v>385.8757708895569</v>
       </c>
       <c r="M45" t="n">
-        <v>1399.552032956147</v>
+        <v>942.2821476342442</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.538557574396</v>
+        <v>1526.809848539785</v>
       </c>
       <c r="O45" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557157</v>
+        <v>209.5016312557152</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529865</v>
+        <v>173.4370602529862</v>
       </c>
       <c r="D46" t="n">
-        <v>153.9165656163398</v>
+        <v>153.9165656163395</v>
       </c>
       <c r="E46" t="n">
-        <v>135.4589499132492</v>
+        <v>135.458949913249</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746169</v>
+        <v>116.5296934746167</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510968992</v>
+        <v>81.40229510968979</v>
       </c>
       <c r="H46" t="n">
-        <v>57.72332836579568</v>
+        <v>57.7233283657956</v>
       </c>
       <c r="I46" t="n">
-        <v>54.31775821533927</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="J46" t="n">
-        <v>143.0456695887319</v>
+        <v>54.31775821533925</v>
       </c>
       <c r="K46" t="n">
-        <v>277.2364366971945</v>
+        <v>246.2527971553575</v>
       </c>
       <c r="L46" t="n">
-        <v>412.9535904537895</v>
+        <v>381.9699509119525</v>
       </c>
       <c r="M46" t="n">
-        <v>567.9657471944702</v>
+        <v>667.8758333573655</v>
       </c>
       <c r="N46" t="n">
-        <v>722.526518786323</v>
+        <v>822.4366049492183</v>
       </c>
       <c r="O46" t="n">
-        <v>854.3698544156989</v>
+        <v>954.2799405785943</v>
       </c>
       <c r="P46" t="n">
-        <v>945.9004287171941</v>
+        <v>1045.810514880089</v>
       </c>
       <c r="Q46" t="n">
-        <v>1058.798617193001</v>
+        <v>1058.798617193</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.66230038528</v>
+        <v>1053.662300385279</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658261</v>
+        <v>977.7030678658251</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522524</v>
+        <v>879.1050342522515</v>
       </c>
       <c r="U46" t="n">
-        <v>725.4793360986682</v>
+        <v>725.4793360986674</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926814</v>
+        <v>598.2954301926807</v>
       </c>
       <c r="W46" t="n">
-        <v>445.690427245671</v>
+        <v>445.6904272456704</v>
       </c>
       <c r="X46" t="n">
-        <v>347.9893616766373</v>
+        <v>347.9893616766367</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045049</v>
+        <v>259.5056014045044</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,13 +8465,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>196.5600440970748</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,7 +8532,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8541,16 +8541,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>116.3203883846627</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,19 +8614,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.9648752533803</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>360.8957583733873</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>520.1644974688032</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>241.396593498173</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>147.798390860916</v>
+        <v>54.52104079767124</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5751177101338</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8942,10 +8942,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>236.2745000807344</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.1961493292428</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467497</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>231.2726345404296</v>
       </c>
       <c r="N15" t="n">
-        <v>161.2563135941926</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>386.4871811933845</v>
+        <v>386.4871811933864</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9252,10 +9252,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941927</v>
       </c>
       <c r="O18" t="n">
-        <v>50.13224200732151</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.9648752533803</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>357.1859402706351</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>402.3037729984894</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225731</v>
       </c>
       <c r="N21" t="n">
-        <v>444.6867029934752</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.41490937517767</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533803</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>386.4871811933864</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.8063917859973</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>66.05046325130486</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>161.256313594195</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.7108705870809</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>143.5278098225731</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941927</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467497</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>161.2563135941925</v>
+        <v>249.001138312049</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236944</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>143.5278098225728</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>147.7983908609171</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517767</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,10 +10826,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155849</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406817</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10908,13 +10908,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>143.5278098225728</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200732128</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11072,13 +11072,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578757</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>161.2563135941925</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200732128</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355789</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>133.3262598689383</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>50.79576191566291</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>356.9418782756184</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.41490937517767</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4734992560195</v>
+        <v>115.3606737342665</v>
       </c>
       <c r="D11" t="n">
-        <v>119.9229910367883</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F11" t="n">
-        <v>307.3687569584301</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>266.4548033005475</v>
       </c>
       <c r="E14" t="n">
-        <v>83.03526832473622</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407886</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>68.29027539988579</v>
       </c>
     </row>
     <row r="15">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.187690029131772e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14.10199334928408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.1952731827173</v>
       </c>
       <c r="H41" t="n">
-        <v>44.62498470927646</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.3713488583454</v>
+        <v>18.37134885834534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679404</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881246</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>120.0780552571191</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>236.879840574814</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.10199334928433</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.1952731827173</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834541</v>
+        <v>18.37134885834536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679403</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>15.39476553039322</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717058.4173840737</v>
+        <v>717058.4173840741</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717058.4173840738</v>
+        <v>717058.4173840742</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776518.5862004453</v>
+        <v>776518.5862004454</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781953.1912436297</v>
+        <v>781953.1912436299</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781953.1912436298</v>
+        <v>781953.1912436299</v>
       </c>
     </row>
     <row r="14">
@@ -26314,43 +26314,43 @@
         <v>727582.7999319391</v>
       </c>
       <c r="C2" t="n">
-        <v>727582.7999319388</v>
+        <v>727582.7999319392</v>
       </c>
       <c r="D2" t="n">
-        <v>729096.6637510695</v>
+        <v>729096.6637510693</v>
       </c>
       <c r="E2" t="n">
         <v>658633.9070000316</v>
       </c>
       <c r="F2" t="n">
-        <v>658633.9070000317</v>
+        <v>658633.907000032</v>
       </c>
       <c r="G2" t="n">
-        <v>729242.8574694725</v>
+        <v>729242.8574694727</v>
       </c>
       <c r="H2" t="n">
+        <v>729242.8574694726</v>
+      </c>
+      <c r="I2" t="n">
         <v>729242.8574694727</v>
       </c>
-      <c r="I2" t="n">
-        <v>729242.8574694726</v>
-      </c>
       <c r="J2" t="n">
-        <v>729242.8574694733</v>
+        <v>729242.8574694734</v>
       </c>
       <c r="K2" t="n">
-        <v>729242.8574694735</v>
+        <v>729242.8574694736</v>
       </c>
       <c r="L2" t="n">
-        <v>729242.8574694716</v>
+        <v>729242.8574694718</v>
       </c>
       <c r="M2" t="n">
-        <v>729242.8574694727</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="N2" t="n">
-        <v>729242.8574694729</v>
+        <v>729242.857469473</v>
       </c>
       <c r="O2" t="n">
-        <v>705674.4767736561</v>
+        <v>705674.4767736562</v>
       </c>
       <c r="P2" t="n">
         <v>705674.4767736562</v>
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>374397.5836627404</v>
+        <v>374397.5836627402</v>
       </c>
       <c r="F3" t="n">
-        <v>1.00083196473108e-10</v>
+        <v>8.227561920648443e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746713</v>
+        <v>50616.42829746704</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.75405589235</v>
+        <v>94448.75405589241</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324324</v>
+        <v>52688.19157324308</v>
       </c>
       <c r="M3" t="n">
-        <v>147591.2452609262</v>
+        <v>147591.2452609263</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030508</v>
+        <v>14736.46536030535</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>401458.5259571916</v>
       </c>
       <c r="E4" t="n">
-        <v>269184.8031387582</v>
+        <v>269184.8031387583</v>
       </c>
       <c r="F4" t="n">
-        <v>269184.8031387582</v>
+        <v>269184.8031387583</v>
       </c>
       <c r="G4" t="n">
         <v>311372.5411430193</v>
       </c>
       <c r="H4" t="n">
-        <v>311372.5411430193</v>
+        <v>311372.5411430194</v>
       </c>
       <c r="I4" t="n">
         <v>311372.5411430193</v>
       </c>
       <c r="J4" t="n">
-        <v>309745.1728663463</v>
+        <v>309745.1728663464</v>
       </c>
       <c r="K4" t="n">
-        <v>309745.1728663463</v>
+        <v>309745.1728663464</v>
       </c>
       <c r="L4" t="n">
         <v>309691.5599886818</v>
@@ -26451,13 +26451,13 @@
         <v>308721.7754218915</v>
       </c>
       <c r="N4" t="n">
-        <v>308721.7754218916</v>
+        <v>308721.7754218915</v>
       </c>
       <c r="O4" t="n">
-        <v>294647.3685653066</v>
+        <v>294647.3685653067</v>
       </c>
       <c r="P4" t="n">
-        <v>294647.3685653066</v>
+        <v>294647.3685653067</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267922</v>
+        <v>49998.56587267924</v>
       </c>
       <c r="F5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.56587267926</v>
       </c>
       <c r="G5" t="n">
-        <v>55317.65651085394</v>
+        <v>55317.65651085396</v>
       </c>
       <c r="H5" t="n">
-        <v>55317.65651085394</v>
+        <v>55317.65651085396</v>
       </c>
       <c r="I5" t="n">
-        <v>55317.65651085394</v>
+        <v>55317.65651085396</v>
       </c>
       <c r="J5" t="n">
-        <v>64627.25466179924</v>
+        <v>64627.25466179926</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179924</v>
+        <v>64627.25466179926</v>
       </c>
       <c r="L5" t="n">
         <v>64236.38002533605</v>
       </c>
       <c r="M5" t="n">
-        <v>57041.74109215511</v>
+        <v>57041.74109215513</v>
       </c>
       <c r="N5" t="n">
-        <v>57041.74109215511</v>
+        <v>57041.7410921551</v>
       </c>
       <c r="O5" t="n">
         <v>55280.51195643518</v>
       </c>
       <c r="P5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643518</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292347.7935176314</v>
+        <v>292343.4249451642</v>
       </c>
       <c r="C6" t="n">
-        <v>292347.7935176311</v>
+        <v>292343.4249451644</v>
       </c>
       <c r="D6" t="n">
-        <v>290292.6428035336</v>
+        <v>290292.258083222</v>
       </c>
       <c r="E6" t="n">
-        <v>-34947.04567414625</v>
+        <v>-35132.85870169738</v>
       </c>
       <c r="F6" t="n">
-        <v>339450.5379885941</v>
+        <v>339264.7249610432</v>
       </c>
       <c r="G6" t="n">
-        <v>311936.231518132</v>
+        <v>311936.2315181323</v>
       </c>
       <c r="H6" t="n">
+        <v>362552.6598155992</v>
+      </c>
+      <c r="I6" t="n">
         <v>362552.6598155994</v>
       </c>
-      <c r="I6" t="n">
-        <v>362552.6598155993</v>
-      </c>
       <c r="J6" t="n">
-        <v>260421.6758854354</v>
+        <v>260421.6758854353</v>
       </c>
       <c r="K6" t="n">
         <v>354870.429941328</v>
       </c>
       <c r="L6" t="n">
-        <v>302626.7258822105</v>
+        <v>302626.7258822108</v>
       </c>
       <c r="M6" t="n">
-        <v>215888.0956944998</v>
+        <v>215888.0956945</v>
       </c>
       <c r="N6" t="n">
-        <v>363479.3409554262</v>
+        <v>363479.3409554265</v>
       </c>
       <c r="O6" t="n">
-        <v>341010.1308916092</v>
+        <v>340948.1088371463</v>
       </c>
       <c r="P6" t="n">
-        <v>355746.5962519144</v>
+        <v>355684.5741974516</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>102.6409218245012</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="J2" t="n">
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M2" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="N2" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="O2" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="P2" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662235</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662235</v>
       </c>
       <c r="G3" t="n">
         <v>132.2825006662235</v>
@@ -26796,31 +26796,31 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9915740344004</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344013</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344013</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344013</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344013</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659799</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659799</v>
+        <v>873.5950080659801</v>
       </c>
       <c r="L4" t="n">
-        <v>863.5853292830485</v>
+        <v>863.5853292830487</v>
       </c>
       <c r="M4" t="n">
-        <v>678.9719776917404</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="N4" t="n">
         <v>678.9719776917407</v>
@@ -26829,7 +26829,7 @@
         <v>678.9719776917407</v>
       </c>
       <c r="P4" t="n">
-        <v>678.9719776917409</v>
+        <v>678.9719776917407</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183392</v>
+        <v>63.2705353718338</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266736</v>
+        <v>39.37038645266747</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655405</v>
+        <v>65.86023946655385</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329928</v>
+        <v>47.93506338329919</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038135</v>
+        <v>18.42058170038169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>622.981895251469</v>
+        <v>622.9818952514695</v>
       </c>
       <c r="F4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.603434031579</v>
+        <v>240.6034340315789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.368543660161</v>
+        <v>438.3685436601619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183392</v>
+        <v>63.2705353718338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266736</v>
+        <v>39.37038645266747</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>622.981895251469</v>
+        <v>622.9818952514695</v>
       </c>
       <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>359.0860463421173</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27901,16 +27901,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>175.3470068330182</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>324.7929562910121</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>151.2701109594489</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27983,7 +27983,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -27992,13 +27992,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>230.0861850070171</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
-        <v>180.5864343039856</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>171.7101362146047</v>
       </c>
       <c r="C10" t="n">
-        <v>159.1032847709306</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>141.5314954575835</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>140.479245313363</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>202.7561398983434</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187025</v>
+        <v>56.32691617187034</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.32691617187029</v>
+        <v>56.32691617187034</v>
       </c>
       <c r="S14" t="n">
         <v>102.6409218245012</v>
@@ -28509,7 +28509,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6409218245022</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="L16" t="n">
         <v>102.6409218245012</v>
@@ -28524,7 +28524,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="P16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245024</v>
       </c>
       <c r="Q16" t="n">
         <v>102.6409218245012</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="I17" t="n">
         <v>150.5872334085801</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>12.74659064484624</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28770,25 +28770,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9114571963351</v>
+        <v>12.74659064484737</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="I20" t="n">
         <v>150.5872334085801</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="21">
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D22" t="n">
-        <v>149.3321561135067</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29007,25 +29007,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9114571963351</v>
+        <v>12.74659064484737</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="I23" t="n">
         <v>150.5872334085801</v>
@@ -29086,25 +29086,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.465583293087548e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>12.74659064484624</v>
+        <v>165.911457196335</v>
       </c>
       <c r="H25" t="n">
         <v>155.6580616266899</v>
@@ -29244,25 +29244,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9114571963351</v>
+        <v>12.7465906448474</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.911457196335</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019704</v>
       </c>
       <c r="K26" t="n">
         <v>102.6409218245012</v>
@@ -29308,7 +29308,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="N26" t="n">
-        <v>5.828106290018241</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="O26" t="n">
         <v>102.6409218245012</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="M29" t="n">
-        <v>5.828106290018468</v>
+        <v>5.828106290019434</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="P29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="R29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="S29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="M31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="N31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245008</v>
       </c>
       <c r="O31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="P31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="R31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="S31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J32" t="n">
-        <v>50.70681578573091</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192214</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O32" t="n">
-        <v>105.2306259192214</v>
+        <v>50.70681578573237</v>
       </c>
       <c r="P32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K34" t="n">
-        <v>42.2364239179931</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2306259192214</v>
+        <v>42.23642391799424</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192214</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="E35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="F35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="G35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I35" t="n">
         <v>150.5872334085801</v>
@@ -30034,25 +30034,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="U35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
@@ -30192,25 +30192,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V37" t="n">
-        <v>129.9508740133457</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025207</v>
+        <v>129.9508740133471</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="E38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="F38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="G38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I38" t="n">
         <v>150.5872334085801</v>
@@ -30271,25 +30271,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="U38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I40" t="n">
         <v>135.5873989991865</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.1773103322481</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.300838189878</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T40" t="n">
-        <v>153.1656893025207</v>
+        <v>148.1281843455955</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W40" t="n">
-        <v>129.9508740133456</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.1656893025207</v>
+        <v>153.1656893025205</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="C41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="D41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="E41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="F41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="G41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="H41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="I41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="T41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="U41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="V41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="W41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="X41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="D43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="E43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="J43" t="n">
-        <v>132.2158845502346</v>
+        <v>42.59173164781785</v>
       </c>
       <c r="K43" t="n">
-        <v>132.2158845502346</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>31.29660559781422</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.71102691338477</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.1773103322481</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="T43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="W43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="X43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="C44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="D44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="E44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="F44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="G44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="H44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="I44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="T44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="U44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="V44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="W44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="X44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="D46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="E46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="G46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="H46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="J46" t="n">
-        <v>132.2158845502346</v>
+        <v>42.59173164781785</v>
       </c>
       <c r="K46" t="n">
-        <v>73.88833724563298</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.2158845502346</v>
+        <v>31.2966055978143</v>
       </c>
       <c r="R46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="S46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="T46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="U46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="V46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="W46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="X46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.2158845502346</v>
+        <v>132.2158845502347</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019047</v>
+        <v>0.5317889474019033</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579759</v>
+        <v>5.446183557579744</v>
       </c>
       <c r="I11" t="n">
-        <v>20.50179339471195</v>
+        <v>20.5017933947119</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455246</v>
+        <v>45.13492217455233</v>
       </c>
       <c r="K11" t="n">
-        <v>67.6455483180751</v>
+        <v>67.6455483180749</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712616</v>
+        <v>83.92028431712592</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048477</v>
+        <v>93.37748601048452</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729044</v>
+        <v>94.88843135729019</v>
       </c>
       <c r="O11" t="n">
-        <v>89.60045501156276</v>
+        <v>89.6004550115625</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257821</v>
+        <v>76.471915372578</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374749</v>
+        <v>57.42722369374732</v>
       </c>
       <c r="R11" t="n">
-        <v>33.40498746723493</v>
+        <v>33.40498746723484</v>
       </c>
       <c r="S11" t="n">
-        <v>12.11814063892092</v>
+        <v>12.11814063892088</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251839</v>
+        <v>2.327906117251833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04254311579215237</v>
+        <v>0.04254311579215225</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2845321712443307</v>
+        <v>0.2845321712443299</v>
       </c>
       <c r="H12" t="n">
-        <v>2.747981759122879</v>
+        <v>2.747981759122871</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017527</v>
+        <v>9.7963927380175</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199179</v>
+        <v>26.88205044199172</v>
       </c>
       <c r="K12" t="n">
-        <v>45.94570591536194</v>
+        <v>45.94570591536181</v>
       </c>
       <c r="L12" t="n">
-        <v>61.77967165548505</v>
+        <v>61.77967165548488</v>
       </c>
       <c r="M12" t="n">
-        <v>72.09396286309202</v>
+        <v>72.09396286309182</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779634</v>
+        <v>74.00207553779613</v>
       </c>
       <c r="O12" t="n">
-        <v>67.69744163811933</v>
+        <v>67.69744163811913</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647224</v>
+        <v>54.33316522647208</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971491</v>
+        <v>36.32028206971481</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953836</v>
+        <v>17.66595357953831</v>
       </c>
       <c r="S12" t="n">
-        <v>5.28506028605149</v>
+        <v>5.285060286051475</v>
       </c>
       <c r="T12" t="n">
-        <v>1.146864321813771</v>
+        <v>1.146864321813768</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.01871922179239013</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2385422143161414</v>
+        <v>0.2385422143161408</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828968</v>
+        <v>2.120857141828962</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161783</v>
+        <v>7.173614954161764</v>
       </c>
       <c r="J13" t="n">
-        <v>16.8649345521512</v>
+        <v>16.86493455215115</v>
       </c>
       <c r="K13" t="n">
-        <v>27.71426817236625</v>
+        <v>27.71426817236617</v>
       </c>
       <c r="L13" t="n">
-        <v>35.46472157205616</v>
+        <v>35.46472157205606</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684752</v>
+        <v>37.39257637684741</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712374</v>
+        <v>36.50346448712364</v>
       </c>
       <c r="O13" t="n">
-        <v>33.71685771079426</v>
+        <v>33.71685771079417</v>
       </c>
       <c r="P13" t="n">
-        <v>28.85059653874495</v>
+        <v>28.85059653874487</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059981</v>
+        <v>19.97465760059976</v>
       </c>
       <c r="R13" t="n">
-        <v>10.72572538188759</v>
+        <v>10.72572538188756</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854937</v>
+        <v>4.157140225854925</v>
       </c>
       <c r="T13" t="n">
-        <v>1.019225824805331</v>
+        <v>1.019225824805329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815315</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5317889474019041</v>
+        <v>0.5317889474019033</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579752</v>
+        <v>5.446183557579744</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471193</v>
+        <v>20.5017933947119</v>
       </c>
       <c r="J14" t="n">
-        <v>45.1349221745524</v>
+        <v>45.13492217455233</v>
       </c>
       <c r="K14" t="n">
-        <v>67.64554831807502</v>
+        <v>67.6455483180749</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712605</v>
+        <v>83.92028431712592</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048466</v>
+        <v>93.37748601048452</v>
       </c>
       <c r="N14" t="n">
-        <v>94.88843135729033</v>
+        <v>94.88843135729019</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156263</v>
+        <v>89.6004550115625</v>
       </c>
       <c r="P14" t="n">
-        <v>76.47191537257812</v>
+        <v>76.471915372578</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374741</v>
+        <v>57.42722369374732</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723489</v>
+        <v>33.40498746723484</v>
       </c>
       <c r="S14" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892088</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251836</v>
+        <v>2.327906117251833</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215232</v>
+        <v>0.04254311579215225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443303</v>
+        <v>0.2845321712443299</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122871</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017515</v>
+        <v>9.7963927380175</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199175</v>
+        <v>26.88205044199172</v>
       </c>
       <c r="K15" t="n">
-        <v>45.94570591536188</v>
+        <v>45.94570591536181</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548488</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309193</v>
+        <v>72.09396286309182</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779624</v>
+        <v>74.00207553779613</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811924</v>
+        <v>67.69744163811913</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647217</v>
+        <v>54.33316522647208</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971487</v>
+        <v>36.32028206971481</v>
       </c>
       <c r="R15" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953831</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051483</v>
+        <v>5.285060286051475</v>
       </c>
       <c r="T15" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813768</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239016</v>
+        <v>0.01871922179239013</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161411</v>
+        <v>0.2385422143161408</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828965</v>
+        <v>2.120857141828962</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161774</v>
+        <v>7.173614954161764</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215118</v>
+        <v>16.86493455215115</v>
       </c>
       <c r="K16" t="n">
-        <v>27.71426817236621</v>
+        <v>27.71426817236617</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205612</v>
+        <v>35.46472157205606</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684747</v>
+        <v>37.39257637684741</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712369</v>
+        <v>36.50346448712364</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079417</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874491</v>
+        <v>28.85059653874487</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059978</v>
+        <v>19.97465760059976</v>
       </c>
       <c r="R16" t="n">
-        <v>10.72572538188758</v>
+        <v>10.72572538188756</v>
       </c>
       <c r="S16" t="n">
-        <v>4.157140225854931</v>
+        <v>4.157140225854925</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815315</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.8607244703157</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L11" t="n">
-        <v>253.2558305273989</v>
+        <v>435.3196510695968</v>
       </c>
       <c r="M11" t="n">
-        <v>490.5887650540079</v>
+        <v>426.3856689821287</v>
       </c>
       <c r="N11" t="n">
-        <v>477.0413189206397</v>
+        <v>477.0413189206394</v>
       </c>
       <c r="O11" t="n">
-        <v>397.6858938730112</v>
+        <v>397.685893873011</v>
       </c>
       <c r="P11" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443489</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286332</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.74482471785659</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7543448650475</v>
+        <v>175.3461302468681</v>
       </c>
       <c r="L12" t="n">
-        <v>431.2966869788342</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M12" t="n">
-        <v>562.026643176452</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N12" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O12" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867564</v>
       </c>
       <c r="P12" t="n">
-        <v>93.27735006324492</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.04919017668344</v>
+        <v>60.0491901766834</v>
       </c>
       <c r="K13" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L13" t="n">
-        <v>239.7289559220721</v>
+        <v>239.7289559220719</v>
       </c>
       <c r="M13" t="n">
-        <v>259.218857926199</v>
+        <v>259.2188579261989</v>
       </c>
       <c r="N13" t="n">
-        <v>258.7629133314233</v>
+        <v>258.7629133314232</v>
       </c>
       <c r="O13" t="n">
-        <v>235.8160083188204</v>
+        <v>235.8160083188203</v>
       </c>
       <c r="P13" t="n">
-        <v>195.0960473815672</v>
+        <v>195.0960473815671</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225319</v>
+        <v>84.46361149225315</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.6102424567536</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K14" t="n">
-        <v>310.2115806865424</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L14" t="n">
-        <v>435.319651069597</v>
+        <v>435.3196510695968</v>
       </c>
       <c r="M14" t="n">
-        <v>490.5887650540078</v>
+        <v>490.5887650540077</v>
       </c>
       <c r="N14" t="n">
-        <v>477.0413189206396</v>
+        <v>477.0413189206394</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6858938730111</v>
+        <v>397.685893873011</v>
       </c>
       <c r="P14" t="n">
-        <v>306.933426944349</v>
+        <v>124.8696064021559</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>152.8133385286332</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.74482471785655</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L15" t="n">
-        <v>431.2966869788341</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M15" t="n">
-        <v>562.026643176452</v>
+        <v>187.8826948418815</v>
       </c>
       <c r="N15" t="n">
-        <v>128.5432480642805</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O15" t="n">
-        <v>463.8590080867565</v>
+        <v>463.8590080867564</v>
       </c>
       <c r="P15" t="n">
         <v>359.4805584342471</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.6855646814262</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668337</v>
+        <v>60.04919017668334</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2988139813567</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L16" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220719</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2188579261989</v>
+        <v>259.2188579261988</v>
       </c>
       <c r="N16" t="n">
         <v>258.7629133314232</v>
@@ -35820,10 +35820,10 @@
         <v>235.8160083188203</v>
       </c>
       <c r="P16" t="n">
-        <v>195.0960473815671</v>
+        <v>195.0960473815682</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225312</v>
+        <v>84.46361149225309</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>490.5887650540077</v>
       </c>
       <c r="N17" t="n">
-        <v>294.9774983784446</v>
+        <v>294.9774983784465</v>
       </c>
       <c r="O17" t="n">
         <v>397.685893873011</v>
@@ -35972,10 +35972,10 @@
         <v>562.0266431764519</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167073</v>
+        <v>128.5432480642805</v>
       </c>
       <c r="O18" t="n">
-        <v>1.970235034329535</v>
+        <v>463.8590080867564</v>
       </c>
       <c r="P18" t="n">
         <v>359.4805584342471</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K20" t="n">
-        <v>246.0084846146633</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L20" t="n">
         <v>435.3196510695968</v>
       </c>
       <c r="M20" t="n">
-        <v>490.5887650540077</v>
+        <v>308.5249445118149</v>
       </c>
       <c r="N20" t="n">
         <v>477.0413189206394</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K21" t="n">
         <v>277.7543448650474</v>
@@ -36206,10 +36206,10 @@
         <v>431.296686978834</v>
       </c>
       <c r="M21" t="n">
-        <v>562.0266431764519</v>
+        <v>100.137870124025</v>
       </c>
       <c r="N21" t="n">
-        <v>411.973637463563</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867564</v>
@@ -36218,7 +36218,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K23" t="n">
         <v>310.2115806865423</v>
@@ -36367,7 +36367,7 @@
         <v>490.5887650540077</v>
       </c>
       <c r="N23" t="n">
-        <v>477.0413189206394</v>
+        <v>294.9774983784465</v>
       </c>
       <c r="O23" t="n">
         <v>397.685893873011</v>
@@ -36376,7 +36376,7 @@
         <v>306.9334269443489</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.61024245675436</v>
+        <v>152.8133385286332</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
         <v>431.296686978834</v>
@@ -36446,7 +36446,7 @@
         <v>562.0266431764519</v>
       </c>
       <c r="N24" t="n">
-        <v>590.4320211167073</v>
+        <v>128.5432480642828</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867564</v>
@@ -36455,7 +36455,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.29596121190328</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.5016462948169</v>
+        <v>123.6888307603354</v>
       </c>
       <c r="K26" t="n">
-        <v>412.8525025110437</v>
+        <v>412.8525025110436</v>
       </c>
       <c r="L26" t="n">
         <v>537.9605728940982</v>
@@ -36604,7 +36604,7 @@
         <v>593.229686878509</v>
       </c>
       <c r="N26" t="n">
-        <v>482.8694252106578</v>
+        <v>579.6822407451407</v>
       </c>
       <c r="O26" t="n">
         <v>500.3268156975122</v>
@@ -36616,7 +36616,7 @@
         <v>255.4542603531345</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263093</v>
+        <v>46.31400565263091</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.0491901766834</v>
+        <v>60.04919017668339</v>
       </c>
       <c r="K28" t="n">
         <v>164.2988139813557</v>
@@ -36771,7 +36771,7 @@
         <v>195.0960473815671</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225314</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>220.5016462948169</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110436</v>
+        <v>412.8525025110437</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940982</v>
       </c>
       <c r="M29" t="n">
-        <v>496.4168713440262</v>
+        <v>496.4168713440271</v>
       </c>
       <c r="N29" t="n">
         <v>579.6822407451407</v>
@@ -36850,10 +36850,10 @@
         <v>409.5743487688502</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.4542603531344</v>
+        <v>255.4542603531345</v>
       </c>
       <c r="R29" t="n">
-        <v>46.3140056526309</v>
+        <v>46.31400565263093</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>431.296686978834</v>
       </c>
       <c r="M30" t="n">
-        <v>100.137870124025</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N30" t="n">
-        <v>590.4320211167073</v>
+        <v>128.5432480642805</v>
       </c>
       <c r="O30" t="n">
         <v>463.8590080867564</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.0491901766834</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K31" t="n">
         <v>164.2988139813557</v>
@@ -36999,16 +36999,16 @@
         <v>259.2188579261989</v>
       </c>
       <c r="N31" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314228</v>
       </c>
       <c r="O31" t="n">
-        <v>235.8160083188203</v>
+        <v>235.8160083188204</v>
       </c>
       <c r="P31" t="n">
         <v>195.0960473815671</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.46361149225315</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>168.5675402560465</v>
+        <v>223.091350389537</v>
       </c>
       <c r="K32" t="n">
-        <v>310.2115806865423</v>
+        <v>415.4422066057637</v>
       </c>
       <c r="L32" t="n">
-        <v>540.5502769888183</v>
+        <v>540.5502769888182</v>
       </c>
       <c r="M32" t="n">
-        <v>595.819390973229</v>
+        <v>490.5887650540077</v>
       </c>
       <c r="N32" t="n">
-        <v>582.2719448398608</v>
+        <v>582.2719448398607</v>
       </c>
       <c r="O32" t="n">
-        <v>502.9165197922323</v>
+        <v>448.3927096587433</v>
       </c>
       <c r="P32" t="n">
-        <v>412.1640528635703</v>
+        <v>412.1640528635702</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.0439644478546</v>
+        <v>258.0439644478545</v>
       </c>
       <c r="R32" t="n">
-        <v>48.90370974735104</v>
+        <v>48.90370974735098</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74482471785652</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.7543448650474</v>
@@ -37157,7 +37157,7 @@
         <v>562.0266431764519</v>
       </c>
       <c r="N33" t="n">
-        <v>128.5432480642803</v>
+        <v>216.2880727821368</v>
       </c>
       <c r="O33" t="n">
         <v>463.8590080867564</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.63889427140353</v>
+        <v>62.63889427140347</v>
       </c>
       <c r="K34" t="n">
-        <v>103.8943160748476</v>
+        <v>166.8885180760758</v>
       </c>
       <c r="L34" t="n">
-        <v>242.3186600167921</v>
+        <v>242.318660016792</v>
       </c>
       <c r="M34" t="n">
-        <v>261.808562020919</v>
+        <v>261.8085620209189</v>
       </c>
       <c r="N34" t="n">
         <v>261.3526174261434</v>
       </c>
       <c r="O34" t="n">
-        <v>238.4057124135405</v>
+        <v>175.4115104123133</v>
       </c>
       <c r="P34" t="n">
         <v>197.6857514762872</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697328</v>
+        <v>87.05331558697323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.8607244703141</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K35" t="n">
         <v>310.2115806865423</v>
@@ -37391,7 +37391,7 @@
         <v>431.296686978834</v>
       </c>
       <c r="M36" t="n">
-        <v>100.1378701240247</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N36" t="n">
         <v>590.4320211167073</v>
@@ -37400,10 +37400,10 @@
         <v>463.8590080867564</v>
       </c>
       <c r="P36" t="n">
-        <v>359.4805584342471</v>
+        <v>93.27735006324585</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.6855646814261</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>310.2115806865423</v>
       </c>
       <c r="L38" t="n">
-        <v>435.3196510695962</v>
+        <v>435.3196510695968</v>
       </c>
       <c r="M38" t="n">
-        <v>490.5887650540077</v>
+        <v>490.5887650540071</v>
       </c>
       <c r="N38" t="n">
         <v>477.0413189206394</v>
@@ -37628,13 +37628,13 @@
         <v>431.296686978834</v>
       </c>
       <c r="M39" t="n">
-        <v>100.1378701240247</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N39" t="n">
         <v>590.4320211167073</v>
       </c>
       <c r="O39" t="n">
-        <v>463.8590080867564</v>
+        <v>1.970235034329305</v>
       </c>
       <c r="P39" t="n">
         <v>359.4805584342471</v>
@@ -37792,13 +37792,13 @@
         <v>477.0413189206394</v>
       </c>
       <c r="O41" t="n">
-        <v>397.6858938730106</v>
+        <v>397.685893873011</v>
       </c>
       <c r="P41" t="n">
         <v>306.9334269443489</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.8133385286332</v>
+        <v>152.8133385286328</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>562.0266431764519</v>
       </c>
       <c r="N42" t="n">
-        <v>128.5432480642803</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O42" t="n">
-        <v>463.8590080867564</v>
+        <v>1.970235034329305</v>
       </c>
       <c r="P42" t="n">
         <v>359.4805584342471</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.62415290241681</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>193.8737767070891</v>
+        <v>61.65789215685447</v>
       </c>
       <c r="L43" t="n">
         <v>137.0880340975707</v>
       </c>
       <c r="M43" t="n">
-        <v>156.5779361016976</v>
+        <v>187.8745416995119</v>
       </c>
       <c r="N43" t="n">
         <v>156.121991506922</v>
@@ -37953,10 +37953,10 @@
         <v>133.1750864943191</v>
       </c>
       <c r="P43" t="n">
-        <v>148.1661524704506</v>
+        <v>224.6710101073006</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.0385742179866</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>490.5887650540077</v>
       </c>
       <c r="N44" t="n">
-        <v>477.0413189206394</v>
+        <v>477.041318920639</v>
       </c>
       <c r="O44" t="n">
         <v>397.685893873011</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.74482471785652</v>
+        <v>57.15273864426336</v>
       </c>
       <c r="K45" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L45" t="n">
-        <v>431.296686978834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N45" t="n">
-        <v>324.2288127457063</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O45" t="n">
         <v>463.8590080867564</v>
@@ -38114,7 +38114,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>89.62415290241681</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>135.5462294024875</v>
+        <v>193.8737767070891</v>
       </c>
       <c r="L46" t="n">
         <v>137.0880340975707</v>
       </c>
       <c r="M46" t="n">
-        <v>156.5779361016976</v>
+        <v>288.7938206519323</v>
       </c>
       <c r="N46" t="n">
         <v>156.121991506922</v>
@@ -38193,7 +38193,7 @@
         <v>92.45512555706587</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.0385742179866</v>
+        <v>13.1192952655662</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
